--- a/Excel_Files/Stats_Populations/2.5_cm/724_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/2.5_cm/724_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0002973493445794223</v>
+        <v>0.0005536146362626891</v>
       </c>
       <c r="D2">
-        <v>0.0004607091885125662</v>
+        <v>0.0007175071557285017</v>
       </c>
       <c r="E2">
-        <v>0.000299524197970359</v>
+        <v>0.0005641285180750887</v>
       </c>
       <c r="F2">
-        <v>0.0003048075697556724</v>
+        <v>0.00055776211983446</v>
       </c>
       <c r="G2">
-        <v>0.0001923948972552716</v>
+        <v>0.0003900004511766164</v>
       </c>
       <c r="H2">
-        <v>0.0004607091885125662</v>
+        <v>0.0007175071557285017</v>
       </c>
       <c r="I2">
-        <v>0.000510261593875783</v>
+        <v>0.0008490517430982882</v>
       </c>
       <c r="J2">
-        <v>0.0006253329385645232</v>
+        <v>0.0009663201969163668</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0001497197228805222</v>
+        <v>0.0003272149011672637</v>
       </c>
       <c r="D3">
-        <v>0.0004092338369545891</v>
+        <v>0.0006586688547880707</v>
       </c>
       <c r="E3">
-        <v>0.0002261240498505425</v>
+        <v>0.000448289369172571</v>
       </c>
       <c r="F3">
-        <v>0.0001102763252497146</v>
+        <v>0.0002556749844272517</v>
       </c>
       <c r="G3">
-        <v>0.0001324105331542507</v>
+        <v>0.0002961806265285563</v>
       </c>
       <c r="H3">
-        <v>0.0002282528902367913</v>
+        <v>0.000448289369172571</v>
       </c>
       <c r="I3">
-        <v>0.0002465160109173768</v>
+        <v>0.0004824394760038381</v>
       </c>
       <c r="J3">
-        <v>0.0001724426403409716</v>
+        <v>0.0003600438778646512</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>9.920565132459258E-05</v>
+        <v>0.0002338900931780004</v>
       </c>
       <c r="D4">
-        <v>0.000175632045734945</v>
+        <v>0.0003656260843748344</v>
       </c>
       <c r="E4">
-        <v>0.0001578516553424382</v>
+        <v>0.0003387861222112601</v>
       </c>
       <c r="F4">
-        <v>5.14732142244557E-05</v>
+        <v>0.0001371528451689783</v>
       </c>
       <c r="G4">
-        <v>4.80730223097667E-05</v>
+        <v>0.000129112858963798</v>
       </c>
       <c r="H4">
-        <v>0.0001145154497660154</v>
+        <v>0.0002624770159357489</v>
       </c>
       <c r="I4">
-        <v>0.0001632721566532703</v>
+        <v>0.0003496231734912083</v>
       </c>
       <c r="J4">
-        <v>4.921736264119639E-05</v>
+        <v>0.0001312991573209829</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>4.85261847063159E-06</v>
+        <v>1.898229610746716E-05</v>
       </c>
       <c r="D5">
-        <v>6.573077242600278E-06</v>
+        <v>2.467250995086414E-05</v>
       </c>
       <c r="E5">
-        <v>5.01106029262809E-06</v>
+        <v>1.954633351206462E-05</v>
       </c>
       <c r="F5">
-        <v>2.583509682749515E-06</v>
+        <v>1.145558855409348E-05</v>
       </c>
       <c r="G5">
-        <v>1.763528615006162E-06</v>
+        <v>8.293265105592796E-06</v>
       </c>
       <c r="H5">
-        <v>3.190904779219165E-06</v>
+        <v>1.359850467052727E-05</v>
       </c>
       <c r="I5">
-        <v>4.498822593411688E-06</v>
+        <v>1.810275966714948E-05</v>
       </c>
       <c r="J5">
-        <v>4.301122367910981E-06</v>
+        <v>1.698644257968161E-05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>2.877956938656189E-06</v>
+        <v>1.221264842641186E-05</v>
       </c>
       <c r="D6">
-        <v>3.564639949887018E-06</v>
+        <v>1.50420844308257E-05</v>
       </c>
       <c r="E6">
-        <v>2.516583713027343E-06</v>
+        <v>1.11945123923953E-05</v>
       </c>
       <c r="F6">
-        <v>1.169535391047759E-06</v>
+        <v>5.823469174233635E-06</v>
       </c>
       <c r="G6">
-        <v>1.046051211716601E-06</v>
+        <v>5.378255226662107E-06</v>
       </c>
       <c r="H6">
-        <v>1.486291168807117E-06</v>
+        <v>7.14790252657288E-06</v>
       </c>
       <c r="I6">
-        <v>2.948701862501608E-06</v>
+        <v>1.248445850093282E-05</v>
       </c>
       <c r="J6">
-        <v>2.39610938011094E-06</v>
+        <v>1.040092380790804E-05</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>1.843032232618471E-06</v>
+        <v>8.555066902147539E-06</v>
       </c>
       <c r="D7">
-        <v>9.501790160610958E-07</v>
+        <v>5.003082255882637E-06</v>
       </c>
       <c r="E7">
-        <v>7.343415942052777E-07</v>
+        <v>3.986689755595264E-06</v>
       </c>
       <c r="F7">
-        <v>3.568700805815459E-07</v>
+        <v>2.186450654982983E-06</v>
       </c>
       <c r="G7">
-        <v>5.320625442515993E-07</v>
+        <v>3.070270805054551E-06</v>
       </c>
       <c r="H7">
-        <v>3.568700805815459E-07</v>
+        <v>2.186450654982983E-06</v>
       </c>
       <c r="I7">
-        <v>1.95872134699755E-06</v>
+        <v>8.94179838076044E-06</v>
       </c>
       <c r="J7">
-        <v>1.254593635034199E-06</v>
+        <v>6.183355767313667E-06</v>
       </c>
     </row>
   </sheetData>
